--- a/docs/API_Intro.xlsx
+++ b/docs/API_Intro.xlsx
@@ -9,14 +9,51 @@
   <sheets>
     <sheet name="API 使用说明" sheetId="1" r:id="rId1"/>
     <sheet name="全局返回码" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="好友版本机制" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.带商榷怎么传照片
+2.某些项：可以是option的</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
   <si>
     <t>check if register</t>
   </si>
@@ -57,21 +94,6 @@
   </si>
   <si>
     <t>friend/add_friend</t>
-  </si>
-  <si>
-    <t>ok friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friend/ok_friend</t>
-  </si>
-  <si>
-    <t>get friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friend/get_friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>search friend/circle</t>
@@ -151,31 +173,268 @@
   </si>
   <si>
     <t>{
- "nok": x, //1: agree, 0: disagree
- "imsi": xxxx,
- "target_user": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "friend": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
  "search_str": xxxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
- "status": 0,
- "username": xxxx,
- "nickname": xxxx,
+ "status": 55,
+ "error": "undefine error",
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. target user don't register:
+{
+ "status": 28,
+ "error": "user have not register",
+}
+2. source user don't exist:
+{
+ "status": 34,
+ "error": "user do not exist",
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missing items</t>
+  </si>
+  <si>
+    <t>password not correct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile already used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imsi already used</t>
+  </si>
+  <si>
+    <t>user have not register</t>
+  </si>
+  <si>
+    <t>user do not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undefine error</t>
+  </si>
+  <si>
+    <t>{
+ "imsi": xxxx,  //my imsi 
+ "target_user": xxxx,
  "comment": xxxx,
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend/get_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MOBILE </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version = 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大版本号：
+1.mobile侧的版本号应该为得到的服务器最高版本的版本号，也就是说如果mobile版本号为N，说明，N以下版本的好友都已经更新过了
+2.server侧的版本号为服务器中所有好友的最高版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ver = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ver = 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ver = 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ver = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">version = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程1：增加了一个好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step1：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step2：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step3：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVER通知MOBILE,有好友更新(PUSH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE获取最新好友，将MOBILE中的version带给服务器 即 version = 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step4：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器将大于3的好友返回给MOBILE,并且携带最新的version = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE更新，两边达成一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程2：更新一个好友信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE 将FRIEND 3的的信息update 给server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">version = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server 更新好友信息，并且升级版本，返回最新版本信息 version = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ver = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE更加本地的version信息和服务器传回的version信息进行比较，如果只相差1，那么更新最细版本到服务器给的版本，否则发起同步过程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,124 +456,49 @@
   </si>
   <si>
     <t>{
- "status": 55,
- "error": "undefine error",
+ "mobile_friend_version": xxxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>update friend infor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend/update_friend_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
- "status": 34,
- "error": "user do not exist",
+ "status": 0,
+ "server_friend_version",
+ "friends": [
+ { "nickname": xxxx,
+      "avatar_url": xxxx,
+      "mobile": xxx,
+ },{}
+ ]
+ "circle": [
+ { "circlename": xxx,
+      "circle_url": xxx,
+ }, {}
+ ]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. target user don't register:
-{
- "status": 28,
- "error": "user have not register",
-}
-2. source user don't exist:
-{
- "status": 34,
- "error": "user do not exist",
+    <t>{
+  "nickname": xxxx,
+  "avatar_url": xxxx,
+  "mobile": xxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. target user don't register:
-{
- "status": 28,
- "error": "user have not register",
-}
-2. source user don't exist:
-{
- "status": 34,
- "error": "user do not exist",
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>missing items</t>
-  </si>
-  <si>
-    <t>password not correct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile already used</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imsi already used</t>
-  </si>
-  <si>
-    <t>user have not register</t>
-  </si>
-  <si>
-    <t>user do not exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>undefine error</t>
-  </si>
-  <si>
     <t>{
- "imsi": xxxx,  //my imsi 
- "target_user": xxxx,
- "comment": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push Message Format：
-msg content： 202
-extras： 发送方用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push Message Format：
-msg content： 201
-extras： 发送方用户名</t>
+ "status": 0,
+ "server_friend_version"
+ }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,15 +547,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +583,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -468,11 +685,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -526,37 +758,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -642,16 +878,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:H9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="B2:H9"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="模块" dataDxfId="7"/>
-    <tableColumn id="2" name="说明" dataDxfId="6"/>
-    <tableColumn id="3" name="url" dataDxfId="5"/>
-    <tableColumn id="4" name="参数" dataDxfId="4"/>
-    <tableColumn id="5" name="返回" dataDxfId="3"/>
-    <tableColumn id="6" name="错误返回" dataDxfId="2"/>
-    <tableColumn id="7" name="备注" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G9"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="模块" dataDxfId="6"/>
+    <tableColumn id="2" name="说明" dataDxfId="5"/>
+    <tableColumn id="3" name="url" dataDxfId="4"/>
+    <tableColumn id="4" name="参数" dataDxfId="1"/>
+    <tableColumn id="5" name="返回" dataDxfId="0"/>
+    <tableColumn id="6" name="错误返回" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -661,7 +896,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C2:D11" totalsRowShown="0">
   <autoFilter ref="C2:D11"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="返回码" dataDxfId="1"/>
+    <tableColumn id="1" name="返回码" dataDxfId="2"/>
     <tableColumn id="2" name="说明"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -954,45 +1189,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="33.25" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="12" customWidth="1"/>
+    <col min="5" max="5" width="25" style="24" customWidth="1"/>
+    <col min="6" max="6" width="33.25" style="24" customWidth="1"/>
     <col min="7" max="7" width="56.375" customWidth="1"/>
-    <col min="8" max="8" width="56.375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1006,15 +1237,14 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="20"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="15"/>
@@ -1025,15 +1255,14 @@
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="21"/>
+        <v>20</v>
+      </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:9" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1045,19 +1274,18 @@
         <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>10</v>
@@ -1066,83 +1294,72 @@
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="2"/>
-      <c r="C7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="2:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="21"/>
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1152,7 +1369,7 @@
   <dimension ref="C2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1163,10 +1380,10 @@
   <sheetData>
     <row r="2" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1174,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1182,7 +1399,7 @@
         <v>503</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1190,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1198,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1206,7 +1423,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1214,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1222,7 +1439,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1230,7 +1447,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1238,7 +1455,7 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1253,13 +1470,407 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="G32" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B49" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="G53" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="G55" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" t="s">
+        <v>53</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/API_Intro.xlsx
+++ b/docs/API_Intro.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="84">
   <si>
     <t>check if register</t>
   </si>
@@ -501,12 +501,28 @@
  }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Push Message Format：
+msg content： 202
+extras： 发送方用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push Message Format：
+msg content： 201
+extras： 发送方用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +585,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -602,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -700,11 +724,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -777,22 +864,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -884,9 +986,9 @@
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
     <tableColumn id="3" name="url" dataDxfId="4"/>
-    <tableColumn id="4" name="参数" dataDxfId="1"/>
-    <tableColumn id="5" name="返回" dataDxfId="0"/>
-    <tableColumn id="6" name="错误返回" dataDxfId="3"/>
+    <tableColumn id="4" name="参数" dataDxfId="3"/>
+    <tableColumn id="5" name="返回" dataDxfId="2"/>
+    <tableColumn id="6" name="错误返回" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -896,7 +998,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C2:D11" totalsRowShown="0">
   <autoFilter ref="C2:D11"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="返回码" dataDxfId="2"/>
+    <tableColumn id="1" name="返回码" dataDxfId="0"/>
     <tableColumn id="2" name="说明"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1192,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1204,6 +1306,7 @@
     <col min="5" max="5" width="25" style="24" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="24" customWidth="1"/>
     <col min="7" max="7" width="56.375" customWidth="1"/>
+    <col min="8" max="8" width="56.375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1225,6 +1328,9 @@
       <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="H2" s="28" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="14" t="s">
@@ -1245,6 +1351,7 @@
       <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="15"/>
@@ -1263,6 +1370,7 @@
       <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="H4" s="30"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:9" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1282,6 +1390,7 @@
       <c r="G5" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
@@ -1301,6 +1410,9 @@
       </c>
       <c r="G6" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
@@ -1318,6 +1430,9 @@
         <v>78</v>
       </c>
       <c r="G7" s="27"/>
+      <c r="H7" s="30" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
@@ -1334,6 +1449,7 @@
         <v>80</v>
       </c>
       <c r="G8" s="27"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="2:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
@@ -1352,6 +1468,7 @@
       <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="H9" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/API_Intro.xlsx
+++ b/docs/API_Intro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="API 使用说明" sheetId="1" r:id="rId1"/>
@@ -52,8 +52,99 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="O25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+删除
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+MOBILE更加本地的version信息和服务器传回的version
+信息进行比较，如果只相差1，那么更新最细版本到服务
+器给的版本，否则发起同步过程
+（拉取所有的好友类表）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+MOBILE更加本地的version信息和服务器传回的version
+信息进行比较，如果只相差1，那么更新最细版本到服务
+器给的版本，否则发起同步过程（拉取所有的好友类表）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="96">
   <si>
     <t>check if register</t>
   </si>
@@ -284,12 +375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大版本号：
-1.mobile侧的版本号应该为得到的服务器最高版本的版本号，也就是说如果mobile版本号为N，说明，N以下版本的好友都已经更新过了
-2.server侧的版本号为服务器中所有好友的最高版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> ver = 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,14 +515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>step4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOBILE更加本地的version信息和服务器传回的version信息进行比较，如果只相差1，那么更新最细版本到服务器给的版本，否则发起同步过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "status": 0,
  "friends": [
@@ -501,12 +578,104 @@
  }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MOBILE 将FRIEND 2的删除事件上报server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server 删除好友信息，并且升级版本，返回最新版本信息 version = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程3：主动删除一个好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MOBILE </t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>大版本号：</t>
+  </si>
+  <si>
+    <t>1.mobile侧的版本号应该为得到的服务器最高版本的版本号，也就是说如果mobile版本号为N，说明，N以下版本的好友都已经更新过了</t>
+  </si>
+  <si>
+    <t>2.server侧的版本号为服务器中所有好友的最高版本号</t>
+  </si>
+  <si>
+    <t>step4</t>
+  </si>
+  <si>
+    <t>过程3：初始好友同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step1：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE获取最新好友，将MOBILE中的version带给服务器 即 version = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step2：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器判断mobile带来的version（1）到server的version（4),之间的number在服务器好友列表中都有对应，如果都有对应，那么将高于mobile version的好友类表带给mobile，否则要求mobile，获取所有的好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总的原则：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+服务器判断mobile带来的version（1）到server的version（4),之间的number在服务器好友列表中都有对应，如果都有对应，那么将高于mobile version的好友类表带给mobile，否则要求mobile，获取所有的好友</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,8 +738,41 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,7 +799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -760,8 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,22 +983,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -884,9 +1100,9 @@
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
     <tableColumn id="3" name="url" dataDxfId="4"/>
-    <tableColumn id="4" name="参数" dataDxfId="1"/>
-    <tableColumn id="5" name="返回" dataDxfId="0"/>
-    <tableColumn id="6" name="错误返回" dataDxfId="3"/>
+    <tableColumn id="4" name="参数" dataDxfId="3"/>
+    <tableColumn id="5" name="返回" dataDxfId="2"/>
+    <tableColumn id="6" name="错误返回" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -896,7 +1112,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C2:D11" totalsRowShown="0">
   <autoFilter ref="C2:D11"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="返回码" dataDxfId="2"/>
+    <tableColumn id="1" name="返回码" dataDxfId="0"/>
     <tableColumn id="2" name="说明"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1192,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
@@ -1201,8 +1417,8 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="12" customWidth="1"/>
     <col min="4" max="4" width="27.75" style="12" customWidth="1"/>
-    <col min="5" max="5" width="25" style="24" customWidth="1"/>
-    <col min="6" max="6" width="33.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25" style="22" customWidth="1"/>
+    <col min="6" max="6" width="33.25" style="22" customWidth="1"/>
     <col min="7" max="7" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1216,10 +1432,10 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1304,36 +1520,36 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="2:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
@@ -1347,7 +1563,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>23</v>
@@ -1469,408 +1685,698 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="4" style="29" customWidth="1"/>
+    <col min="7" max="7" width="6.125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="4" style="29" customWidth="1"/>
+    <col min="13" max="13" width="6.125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="1" spans="2:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="32"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B18" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="H18" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H20" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="O20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J21" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="19" t="s">
+      <c r="O23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="J25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
+      <c r="Q25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D27" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" t="s">
+        <v>67</v>
+      </c>
+      <c r="O32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H35" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+      <c r="O35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H37" s="19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="19" t="s">
+      <c r="I37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" t="s">
+        <v>46</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q37" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="R37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="I39" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" t="s">
+        <v>51</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="R39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I41" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="19" t="s">
+      <c r="J41" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" t="s">
+        <v>70</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q41" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H42" t="s">
+        <v>59</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="O43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B50" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="O50" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B52" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="19" t="s">
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B54" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B56" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H58" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G15" t="s">
+      <c r="J58" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H60" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J60" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
         <v>43</v>
       </c>
-      <c r="I15" t="s">
+      <c r="D68" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="19" t="s">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B71" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B73" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="D73" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C75" s="28"/>
+      <c r="D75" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E75" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D22" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="G30" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="G32" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="G37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="G39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="G48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" t="s">
-        <v>69</v>
-      </c>
-      <c r="I49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="G53" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" t="s">
-        <v>52</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="G55" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H55" t="s">
-        <v>53</v>
-      </c>
-      <c r="I55" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J55" t="s">
-        <v>71</v>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B76" s="28"/>
+      <c r="D76" s="28"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>